--- a/Output/InvoiceReport.xlsx
+++ b/Output/InvoiceReport.xlsx
@@ -15,9 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>text</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Invoice_Number</t>
+  </si>
+  <si>
+    <t>Invoice_Date</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <t xml:space="preserve"> July 08 2024</t>
@@ -373,27 +379,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>23456743</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>71800</v>
@@ -404,7 +417,7 @@
         <v>242500011</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>11800</v>
@@ -415,7 +428,7 @@
         <v>4567392</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>103800</v>
@@ -426,7 +439,7 @@
         <v>7456374</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>103800</v>
@@ -437,7 +450,7 @@
         <v>9874657</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>101800</v>

--- a/Output/InvoiceReport.xlsx
+++ b/Output/InvoiceReport.xlsx
@@ -4,18 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="10050"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="6735"/>
   </bookViews>
   <sheets>
-    <sheet name="Invoice_data" sheetId="2" r:id="rId1"/>
+    <sheet name="Invoice_data" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Invoice_data_Old" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="58">
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
   <si>
     <t>Invoice_Number</t>
   </si>
@@ -26,26 +33,183 @@
     <t>Total</t>
   </si>
   <si>
+    <t>INV_23456743.jpeg</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
     <t xml:space="preserve"> July 08 2024</t>
   </si>
   <si>
+    <t>INV_23456743_IMG.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23456743_x000D_
+Date : July 08 2024_x000D_
+</t>
+  </si>
+  <si>
+    <t>INV_23456743_Text.pdf</t>
+  </si>
+  <si>
+    <t>INV_242500011.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve"> July 01 2024</t>
   </si>
   <si>
+    <t>INV_242500011_IMG.pdf</t>
+  </si>
+  <si>
+    <t>INV_242500011_Text.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 242500011_x000D_
+Date : July 01 2024_x000D_
+</t>
+  </si>
+  <si>
+    <t>INV_4567392.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve"> June 20 2024</t>
   </si>
   <si>
+    <t>INV_4567392_IMG.pdf</t>
+  </si>
+  <si>
+    <t>INV_4567392_Text.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4567392_x000D_
+Date : June 20 2024_x000D_
+</t>
+  </si>
+  <si>
+    <t>INV_7456374.jpeg</t>
+  </si>
+  <si>
     <t>July 20 2024</t>
   </si>
   <si>
+    <t>INV_7456374_IMG.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> July 20</t>
+  </si>
+  <si>
+    <t>INV_7456374_Text.pdf</t>
+  </si>
+  <si>
+    <t>INV_9874657.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve"> May 11 2024</t>
+  </si>
+  <si>
+    <t>INV_9874657_IMG.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9874657_x000D_
+Date : May 11 2024_x000D_
+</t>
+  </si>
+  <si>
+    <t>INV_9874657_Text.pdf</t>
+  </si>
+  <si>
+    <t>July 08 2024</t>
+  </si>
+  <si>
+    <t>TOTAL 71800</t>
+  </si>
+  <si>
+    <t>TOTAL_x000D_
+60000</t>
+  </si>
+  <si>
+    <t>July 01 2024</t>
+  </si>
+  <si>
+    <t>TOTAL 11800</t>
+  </si>
+  <si>
+    <t>TOTAL_x000D_
+11800</t>
+  </si>
+  <si>
+    <t>June 20 2024</t>
+  </si>
+  <si>
+    <t>TOTAL 103800</t>
+  </si>
+  <si>
+    <t>July 20_x000D_
+2024</t>
+  </si>
+  <si>
+    <t>May 11 2024</t>
+  </si>
+  <si>
+    <t>TOTAL 101800</t>
+  </si>
+  <si>
+    <t>Invoice /4: 4557392</t>
+  </si>
+  <si>
+    <t>_x000D_
+60000</t>
+  </si>
+  <si>
+    <t>_x000D_
+11800</t>
+  </si>
+  <si>
+    <t>Date :July 20 2024</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>invoice_1.jpg</t>
+  </si>
+  <si>
+    <t>Invoice_101.pdf</t>
+  </si>
+  <si>
+    <t>invoice_2.jpg</t>
+  </si>
+  <si>
+    <t>invoice_3.jpg</t>
+  </si>
+  <si>
+    <t>Bill_To</t>
+  </si>
+  <si>
+    <t>Bill_From</t>
+  </si>
+  <si>
+    <t>INVOICEs_1001_text.pdf</t>
+  </si>
+  <si>
+    <t>XYZ Consulting Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Envita Services Pvt LTD</t>
+  </si>
+  <si>
+    <t>INVOICEs_1002.jpg</t>
+  </si>
+  <si>
+    <t>INVOICEs_1002_img.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,13 +217,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -74,8 +258,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,87 +567,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>23456743</v>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>71800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>242500011</v>
+        <v>7456374</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>103800</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>11800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4567392</v>
+        <v>7456374</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>103800</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>103800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
         <v>7456374</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>103800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>9874657</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>101800</v>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>103800</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -471,4 +681,2354 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E140"/>
+  <sheetViews>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="I96" sqref="I96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>23456743</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>71800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>71800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>242500011</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>242500011</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>4567392</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>7456374</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>7456374</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>7456374</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>9874657</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>101800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>101800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>23456743</v>
+      </c>
+      <c r="D32">
+        <v>71800</v>
+      </c>
+      <c r="E32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>23456743</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>23456743</v>
+      </c>
+      <c r="D34">
+        <v>71800</v>
+      </c>
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>242500011</v>
+      </c>
+      <c r="D35">
+        <v>11800</v>
+      </c>
+      <c r="E35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>242500011</v>
+      </c>
+      <c r="D36">
+        <v>11800</v>
+      </c>
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>242500011</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>103800</v>
+      </c>
+      <c r="E38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>103800</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>4567392</v>
+      </c>
+      <c r="D40">
+        <v>103800</v>
+      </c>
+      <c r="E40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>7456374</v>
+      </c>
+      <c r="D41">
+        <v>103800</v>
+      </c>
+      <c r="E41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>7456374</v>
+      </c>
+      <c r="D42">
+        <v>103800</v>
+      </c>
+      <c r="E42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>7456374</v>
+      </c>
+      <c r="D43">
+        <v>103800</v>
+      </c>
+      <c r="E43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>9874657</v>
+      </c>
+      <c r="D44">
+        <v>101800</v>
+      </c>
+      <c r="E44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>9874657</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>9874657</v>
+      </c>
+      <c r="D46">
+        <v>101800</v>
+      </c>
+      <c r="E46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>23456743</v>
+      </c>
+      <c r="D47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47">
+        <v>71800</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>23456743</v>
+      </c>
+      <c r="D48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>23456743</v>
+      </c>
+      <c r="D49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49">
+        <v>71800</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>242500011</v>
+      </c>
+      <c r="D50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>242500011</v>
+      </c>
+      <c r="D51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>242500011</v>
+      </c>
+      <c r="D52" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>4567392</v>
+      </c>
+      <c r="D53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>4567392</v>
+      </c>
+      <c r="D55" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>7456374</v>
+      </c>
+      <c r="E56">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>7456374</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>7456374</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>9874657</v>
+      </c>
+      <c r="D59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59">
+        <v>101800</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>9874657</v>
+      </c>
+      <c r="D60" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>9874657</v>
+      </c>
+      <c r="D61" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61">
+        <v>101800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>23456743</v>
+      </c>
+      <c r="D62" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62">
+        <v>71800</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>23456743</v>
+      </c>
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>23456743</v>
+      </c>
+      <c r="D64" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64">
+        <v>71800</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>242500011</v>
+      </c>
+      <c r="D65" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>242500011</v>
+      </c>
+      <c r="D66" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>242500011</v>
+      </c>
+      <c r="D67" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>4567392</v>
+      </c>
+      <c r="D68" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>4557392</v>
+      </c>
+      <c r="D69" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>4567392</v>
+      </c>
+      <c r="D70" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>7456374</v>
+      </c>
+      <c r="E71">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>7456374</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>7456374</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>9874657</v>
+      </c>
+      <c r="D74" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74">
+        <v>101800</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>9874657</v>
+      </c>
+      <c r="D75" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="2">
+        <v>9874657</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" s="2">
+        <v>101800</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>23456743</v>
+      </c>
+      <c r="D77" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77">
+        <v>71800</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>23456743</v>
+      </c>
+      <c r="D78" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>23456743</v>
+      </c>
+      <c r="D79" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79">
+        <v>71800</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>242500011</v>
+      </c>
+      <c r="D80" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81">
+        <v>242500011</v>
+      </c>
+      <c r="D81" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <v>242500011</v>
+      </c>
+      <c r="D82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <v>4567392</v>
+      </c>
+      <c r="D83" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>4557392</v>
+      </c>
+      <c r="D84" t="s">
+        <v>37</v>
+      </c>
+      <c r="E84">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85">
+        <v>4567392</v>
+      </c>
+      <c r="D85" t="s">
+        <v>37</v>
+      </c>
+      <c r="E85">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <v>7456374</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87">
+        <v>7456374</v>
+      </c>
+      <c r="D87" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>7456374</v>
+      </c>
+      <c r="D88" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>26</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <v>9874657</v>
+      </c>
+      <c r="D89" t="s">
+        <v>40</v>
+      </c>
+      <c r="E89">
+        <v>101800</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <v>9874657</v>
+      </c>
+      <c r="D90" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="2">
+        <v>9874657</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E91" s="2">
+        <v>101800</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <v>23456743</v>
+      </c>
+      <c r="D92" t="s">
+        <v>31</v>
+      </c>
+      <c r="E92">
+        <v>71800</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93">
+        <v>23456743</v>
+      </c>
+      <c r="D93" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94">
+        <v>23456743</v>
+      </c>
+      <c r="D94" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94">
+        <v>71800</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <v>242500011</v>
+      </c>
+      <c r="D95" t="s">
+        <v>34</v>
+      </c>
+      <c r="E95">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96">
+        <v>242500011</v>
+      </c>
+      <c r="D96" t="s">
+        <v>34</v>
+      </c>
+      <c r="E96">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97">
+        <v>242500011</v>
+      </c>
+      <c r="D97" t="s">
+        <v>34</v>
+      </c>
+      <c r="E97">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98">
+        <v>4567392</v>
+      </c>
+      <c r="D98" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99">
+        <v>4557392</v>
+      </c>
+      <c r="D99" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100">
+        <v>4567392</v>
+      </c>
+      <c r="D100" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101">
+        <v>7456374</v>
+      </c>
+      <c r="D101" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102">
+        <v>7456374</v>
+      </c>
+      <c r="D102" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>25</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103">
+        <v>7456374</v>
+      </c>
+      <c r="D103" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104">
+        <v>9874657</v>
+      </c>
+      <c r="D104" t="s">
+        <v>40</v>
+      </c>
+      <c r="E104">
+        <v>101800</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105">
+        <v>9874657</v>
+      </c>
+      <c r="D105" t="s">
+        <v>40</v>
+      </c>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>30</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106">
+        <v>9874657</v>
+      </c>
+      <c r="D106" t="s">
+        <v>40</v>
+      </c>
+      <c r="E106">
+        <v>101800</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107">
+        <v>23456743</v>
+      </c>
+      <c r="D107" t="s">
+        <v>31</v>
+      </c>
+      <c r="E107">
+        <v>71800</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108">
+        <v>23456743</v>
+      </c>
+      <c r="D108" t="s">
+        <v>31</v>
+      </c>
+      <c r="E108">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109">
+        <v>23456743</v>
+      </c>
+      <c r="D109" t="s">
+        <v>31</v>
+      </c>
+      <c r="E109">
+        <v>71800</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110">
+        <v>242500011</v>
+      </c>
+      <c r="D110" t="s">
+        <v>34</v>
+      </c>
+      <c r="E110">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111">
+        <v>242500011</v>
+      </c>
+      <c r="D111" t="s">
+        <v>34</v>
+      </c>
+      <c r="E111">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112">
+        <v>242500011</v>
+      </c>
+      <c r="D112" t="s">
+        <v>34</v>
+      </c>
+      <c r="E112">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113">
+        <v>4567392</v>
+      </c>
+      <c r="D113" t="s">
+        <v>37</v>
+      </c>
+      <c r="E113">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>18</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114">
+        <v>4557392</v>
+      </c>
+      <c r="D114" t="s">
+        <v>37</v>
+      </c>
+      <c r="E114">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115">
+        <v>4567392</v>
+      </c>
+      <c r="D115" t="s">
+        <v>37</v>
+      </c>
+      <c r="E115">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116">
+        <v>7456374</v>
+      </c>
+      <c r="D116" t="s">
+        <v>22</v>
+      </c>
+      <c r="E116">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>23</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117">
+        <v>7456374</v>
+      </c>
+      <c r="D117" t="s">
+        <v>22</v>
+      </c>
+      <c r="E117">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>25</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118">
+        <v>7456374</v>
+      </c>
+      <c r="D118" t="s">
+        <v>22</v>
+      </c>
+      <c r="E118">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>26</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119">
+        <v>9874657</v>
+      </c>
+      <c r="D119" t="s">
+        <v>40</v>
+      </c>
+      <c r="E119">
+        <v>101800</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>28</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120">
+        <v>9874657</v>
+      </c>
+      <c r="D120" t="s">
+        <v>40</v>
+      </c>
+      <c r="E120" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>30</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121">
+        <v>9874657</v>
+      </c>
+      <c r="D121" t="s">
+        <v>40</v>
+      </c>
+      <c r="E121">
+        <v>101800</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122">
+        <v>23456743</v>
+      </c>
+      <c r="D122" t="s">
+        <v>31</v>
+      </c>
+      <c r="E122">
+        <v>71800</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123">
+        <v>23456743</v>
+      </c>
+      <c r="D123" t="s">
+        <v>31</v>
+      </c>
+      <c r="E123">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124">
+        <v>23456743</v>
+      </c>
+      <c r="D124" t="s">
+        <v>31</v>
+      </c>
+      <c r="E124">
+        <v>71800</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125">
+        <v>242500011</v>
+      </c>
+      <c r="D125" t="s">
+        <v>34</v>
+      </c>
+      <c r="E125">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126">
+        <v>242500011</v>
+      </c>
+      <c r="D126" t="s">
+        <v>34</v>
+      </c>
+      <c r="E126">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127">
+        <v>242500011</v>
+      </c>
+      <c r="D127" t="s">
+        <v>34</v>
+      </c>
+      <c r="E127">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>16</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128">
+        <v>4567392</v>
+      </c>
+      <c r="D128" t="s">
+        <v>37</v>
+      </c>
+      <c r="E128">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>18</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129">
+        <v>4557392</v>
+      </c>
+      <c r="D129" t="s">
+        <v>37</v>
+      </c>
+      <c r="E129">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>19</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130">
+        <v>4567392</v>
+      </c>
+      <c r="D130" t="s">
+        <v>37</v>
+      </c>
+      <c r="E130">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131">
+        <v>7456374</v>
+      </c>
+      <c r="D131" t="s">
+        <v>22</v>
+      </c>
+      <c r="E131">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>23</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132">
+        <v>7456374</v>
+      </c>
+      <c r="D132" t="s">
+        <v>22</v>
+      </c>
+      <c r="E132">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>25</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133">
+        <v>7456374</v>
+      </c>
+      <c r="D133" t="s">
+        <v>22</v>
+      </c>
+      <c r="E133">
+        <v>103800</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>26</v>
+      </c>
+      <c r="B134" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134">
+        <v>9874657</v>
+      </c>
+      <c r="D134" t="s">
+        <v>40</v>
+      </c>
+      <c r="E134">
+        <v>101800</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>28</v>
+      </c>
+      <c r="B135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135">
+        <v>9874657</v>
+      </c>
+      <c r="D135" t="s">
+        <v>40</v>
+      </c>
+      <c r="E135" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>30</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136">
+        <v>9874657</v>
+      </c>
+      <c r="D136" t="s">
+        <v>40</v>
+      </c>
+      <c r="E136">
+        <v>101800</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>47</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" t="s">
+        <v>46</v>
+      </c>
+      <c r="D137">
+        <v>43646</v>
+      </c>
+      <c r="E137" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>48</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" t="s">
+        <v>46</v>
+      </c>
+      <c r="D138">
+        <v>42394</v>
+      </c>
+      <c r="E138" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>49</v>
+      </c>
+      <c r="B139" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" t="s">
+        <v>46</v>
+      </c>
+      <c r="D139">
+        <v>43635</v>
+      </c>
+      <c r="E139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>50</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" t="s">
+        <v>46</v>
+      </c>
+      <c r="D140">
+        <v>43617</v>
+      </c>
+      <c r="E140" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>